--- a/biology/Histoire de la zoologie et de la botanique/Carl_Ludwig_Kirschbaum/Carl_Ludwig_Kirschbaum.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Ludwig_Kirschbaum/Carl_Ludwig_Kirschbaum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Ludwig Kirschbaum (31 janvier 1812 à Usingen - 3 mars 1880) est un entomologiste et auteur allemand, professeur de biologie et directeur de musée.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kirschbaum était spécialisé dans les Auchenorrhyncha. Il a écrit Die Cicadinen der Gegend von Wiesbaden und Frankfurt a. M. nebst einer Anzahl neuer oder schwer zu unterscheidender Arten aus anderen Gegenden Europas (Nassauischen Jahrbücher des Vereins für Naturkunde 21: 1-202, 1868) et de nombreux autres ouvrages entomologiques.
 Sa collection se trouve au muséum d'histoire naturelle de Wiesbaden. Le muséum abrite son propre matériel en provenance de Francfort et de Wiesbaden, mais aussi une abondante documentation que lui apporta Carl von Heyden (principalement de diverses parties du sud de l'Allemagne et de Suisse) et Philipp Christoph Zeller (principalement de Sicile). Un plus petit nombre de spécimens lui ont été envoyés par Carl Août Dohrn (Jena), Arnold Förster (Aix-la-Chapelle), Fuchs (W.) (Berlin), Gustav Mayr (Vienne), Wilhelm Mink (Crefeld), Hermann Rudolph Schaum (Berlin), Adolph Schenck (Weilburg), Carl Stal (Stockholm) et Peter Friedrich Ludwig Tischbein (Birkenfeld). Au total, la collection comprend 5 000 individus dont 333 qui sont des types publiés dans Die Cicadinen ... . Cette monographie décrit 371 espèces, dont 172 nouvelles pour la science.
@@ -543,7 +557,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(liste partielle)
 (1853): Entomologische Miscellen. - Jahrbücher des Vereins für Naturkunde im Herzogthum Nassau 9: II 42-45 [Originaltitel: ].
